--- a/pabi_budget_plan/xlsx_template/budget_plan_personnel_20180711.xlsx
+++ b/pabi_budget_plan/xlsx_template/budget_plan_personnel_20180711.xlsx
@@ -255,11 +255,11 @@
     <numFmt numFmtId="170" formatCode="#,##0.00_);[RED]\(#,##0.00\);&quot;&quot;"/>
     <numFmt numFmtId="171" formatCode="0\ ;\-0\ ;0\ ;@"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -289,13 +289,27 @@
       <i val="true"/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="222"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -614,15 +628,15 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -630,11 +644,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -650,183 +664,183 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="2" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="2" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="5" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="10" fillId="5" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="5" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="10" fillId="5" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="3" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="14" fillId="3" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="15" fillId="0" borderId="10" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="15" fillId="0" borderId="11" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="15" fillId="0" borderId="12" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="15" fillId="0" borderId="13" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="15" fillId="3" borderId="10" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="13" fillId="0" borderId="10" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="15" fillId="3" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="13" fillId="0" borderId="11" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="13" fillId="0" borderId="12" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="13" fillId="0" borderId="13" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="13" fillId="3" borderId="10" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="13" fillId="3" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="14" fillId="7" borderId="15" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="16" fillId="7" borderId="15" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="14" fillId="7" borderId="16" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="16" fillId="7" borderId="16" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="14" fillId="7" borderId="17" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="16" fillId="7" borderId="17" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="14" fillId="7" borderId="14" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="16" fillId="7" borderId="14" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1035,22 +1049,22 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="0.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="10.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="11.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="36.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="2" width="30.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="8" style="2" width="25.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="23" style="2" width="8.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="2" width="19.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="254" min="28" style="2" width="8.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="255" style="1" width="8.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="0.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="36.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="2" width="30.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="8" style="2" width="25.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="23" style="2" width="8.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="2" width="19.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="254" min="28" style="2" width="8.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="255" style="1" width="8.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="5.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1179,7 +1193,7 @@
       </c>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="4.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="4.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1202,7 +1216,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
@@ -1227,7 +1241,7 @@
       <c r="U7" s="12"/>
       <c r="V7" s="12"/>
     </row>
-    <row r="8" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="13" t="s">
         <v>10</v>
       </c>
@@ -1294,7 +1308,7 @@
       <c r="W8" s="19"/>
       <c r="IU8" s="2"/>
     </row>
-    <row r="9" s="20" customFormat="true" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" s="20" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="21" t="s">
         <v>31</v>
       </c>
@@ -1573,7 +1587,7 @@
       <c r="IT9" s="32"/>
       <c r="IU9" s="32"/>
     </row>
-    <row r="10" s="20" customFormat="true" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" s="20" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="21" t="s">
         <v>31</v>
       </c>
@@ -1852,7 +1866,7 @@
       <c r="IT10" s="32"/>
       <c r="IU10" s="32"/>
     </row>
-    <row r="11" s="20" customFormat="true" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" s="20" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="21" t="s">
         <v>31</v>
       </c>
@@ -2131,7 +2145,7 @@
       <c r="IT11" s="32"/>
       <c r="IU11" s="32"/>
     </row>
-    <row r="12" s="20" customFormat="true" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" s="20" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="21" t="s">
         <v>31</v>
       </c>
@@ -2410,7 +2424,7 @@
       <c r="IT12" s="32"/>
       <c r="IU12" s="32"/>
     </row>
-    <row r="13" s="20" customFormat="true" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" s="20" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="21" t="s">
         <v>31</v>
       </c>
@@ -2689,7 +2703,7 @@
       <c r="IT13" s="32"/>
       <c r="IU13" s="32"/>
     </row>
-    <row r="14" s="20" customFormat="true" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" s="20" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="21" t="s">
         <v>31</v>
       </c>
@@ -2968,7 +2982,7 @@
       <c r="IT14" s="32"/>
       <c r="IU14" s="32"/>
     </row>
-    <row r="15" s="20" customFormat="true" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" s="20" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="21" t="s">
         <v>31</v>
       </c>
@@ -3247,7 +3261,7 @@
       <c r="IT15" s="32"/>
       <c r="IU15" s="32"/>
     </row>
-    <row r="16" s="20" customFormat="true" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" s="20" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="21" t="s">
         <v>31</v>
       </c>
@@ -3526,7 +3540,7 @@
       <c r="IT16" s="32"/>
       <c r="IU16" s="32"/>
     </row>
-    <row r="17" s="20" customFormat="true" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" s="20" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="21" t="s">
         <v>31</v>
       </c>
@@ -3805,7 +3819,7 @@
       <c r="IT17" s="32"/>
       <c r="IU17" s="32"/>
     </row>
-    <row r="18" s="20" customFormat="true" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" s="20" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="21" t="s">
         <v>31</v>
       </c>
@@ -4084,7 +4098,7 @@
       <c r="IT18" s="32"/>
       <c r="IU18" s="32"/>
     </row>
-    <row r="19" s="20" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" s="20" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="21"/>
       <c r="C19" s="21" t="str">
         <f aca="false">IF($D19="","",VLOOKUP(LEFT($D19,1),TAB_List!$B$5:$F$12,2,0))</f>
@@ -4355,7 +4369,7 @@
       <c r="IT19" s="32"/>
       <c r="IU19" s="32"/>
     </row>
-    <row r="20" s="20" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" s="20" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="21"/>
       <c r="C20" s="21" t="str">
         <f aca="false">IF($D20="","",VLOOKUP(LEFT($D20,1),TAB_List!$B$5:$F$12,2,0))</f>
@@ -4626,7 +4640,7 @@
       <c r="IT20" s="32"/>
       <c r="IU20" s="32"/>
     </row>
-    <row r="21" s="20" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" s="20" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="21"/>
       <c r="C21" s="21" t="str">
         <f aca="false">IF($D21="","",VLOOKUP(LEFT($D21,1),TAB_List!$B$5:$F$12,2,0))</f>
@@ -4897,7 +4911,7 @@
       <c r="IT21" s="32"/>
       <c r="IU21" s="32"/>
     </row>
-    <row r="22" s="20" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" s="20" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="21"/>
       <c r="C22" s="21" t="str">
         <f aca="false">IF($D22="","",VLOOKUP(LEFT($D22,1),TAB_List!$B$5:$F$12,2,0))</f>
@@ -5168,7 +5182,7 @@
       <c r="IT22" s="32"/>
       <c r="IU22" s="32"/>
     </row>
-    <row r="23" s="20" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" s="20" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="21"/>
       <c r="C23" s="21" t="str">
         <f aca="false">IF($D23="","",VLOOKUP(LEFT($D23,1),TAB_List!$B$5:$F$12,2,0))</f>
@@ -5439,7 +5453,7 @@
       <c r="IT23" s="32"/>
       <c r="IU23" s="32"/>
     </row>
-    <row r="24" s="20" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" s="20" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="21"/>
       <c r="C24" s="21" t="str">
         <f aca="false">IF($D24="","",VLOOKUP(LEFT($D24,1),TAB_List!$B$5:$F$12,2,0))</f>
@@ -5710,7 +5724,7 @@
       <c r="IT24" s="32"/>
       <c r="IU24" s="32"/>
     </row>
-    <row r="25" s="20" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" s="20" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="21"/>
       <c r="C25" s="21" t="str">
         <f aca="false">IF($D25="","",VLOOKUP(LEFT($D25,1),TAB_List!$B$5:$F$12,2,0))</f>
@@ -5981,7 +5995,7 @@
       <c r="IT25" s="32"/>
       <c r="IU25" s="32"/>
     </row>
-    <row r="26" s="20" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" s="20" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="21"/>
       <c r="C26" s="21" t="str">
         <f aca="false">IF($D26="","",VLOOKUP(LEFT($D26,1),TAB_List!$B$5:$F$12,2,0))</f>
@@ -6252,7 +6266,7 @@
       <c r="IT26" s="32"/>
       <c r="IU26" s="32"/>
     </row>
-    <row r="27" s="20" customFormat="true" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" s="20" customFormat="true" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="34" t="s">
         <v>40</v>
       </c>
@@ -6559,6 +6573,7 @@
       <c r="IU27" s="32"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="true" objects="true" scenarios="true"/>
   <conditionalFormatting sqref="V9:V12 V19:V26">
     <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>NA()</formula>
@@ -6636,13 +6651,13 @@
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="41" width="0.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="41" width="11.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="41" width="10.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="41" width="50.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="41" width="8.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="41" width="0.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="41" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="41" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="41" width="50.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="41" width="8.85"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6650,10 +6665,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="4.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="4.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="42"/>
     </row>
-    <row r="4" customFormat="false" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="25.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="43" t="s">
         <v>42</v>
       </c>
@@ -6670,7 +6685,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="44" t="s">
         <v>47</v>
       </c>
@@ -6687,7 +6702,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="44" t="s">
         <v>51</v>
       </c>
@@ -6704,7 +6719,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="44" t="s">
         <v>56</v>
       </c>
@@ -6721,7 +6736,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="44" t="s">
         <v>61</v>
       </c>
@@ -6738,7 +6753,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="44" t="s">
         <v>66</v>
       </c>
@@ -6755,21 +6770,21 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
       <c r="D10" s="44"/>
       <c r="E10" s="44"/>
       <c r="F10" s="44"/>
     </row>
-    <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="44"/>
       <c r="C11" s="44"/>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
       <c r="F11" s="44"/>
     </row>
-    <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
       <c r="D12" s="44"/>
